--- a/biology/Botanique/Moquilea/Moquilea.xlsx
+++ b/biology/Botanique/Moquilea/Moquilea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Moquilea est un genre de plantes à fleurs de la famille des Chrysobalanaceae. Ce sont des arbres d'origine néotropicale, comptant environ 58-96 espèces, et dont l'espèce type est Moquilea guianensis Aubl..
 </t>
@@ -511,9 +523,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant[2] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant : 
 « MOQUILEA. (Tabula 208.)
 CAL. Perianthium monophyllum, turbinatum, concavum, quinque-dentatum, denticulis acutis, intùs villoſum. 
 COR. Pet à la quinque, alba, ſubrotunda, in orbem expanſa, calici intrà diviſuras inſerta. 
@@ -550,9 +564,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (15 janvier 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (15 janvier 2022) :
 Moquilea angustata (Prance) Sothers &amp; Prance
 Moquilea anneae (Prance) Sothers &amp; Prance
 Moquilea araneosa (Taub.) Sothers &amp; Prance
@@ -611,18 +627,18 @@
 Moquilea vasquezii (Prance) Sothers &amp; Prance
 Moquilea velata (Cuatrec.) Sothers &amp; Prance
 Moquilea veneralensis (Cuatrec.) Sothers &amp; Prance
-Selon Tropicos                                           (15 février 2022)[4] (NB : liste contenant potentiellement des synonymes) :
+Selon Tropicos                                           (15 février 2022) (NB : liste contenant potentiellement des synonymes) :
 Moquilea angustata (Prance) Sothers &amp; Prance, 2016
 Moquilea anneae (Prance) Sothers &amp; Prance, 2016
 Moquilea araneosa (Taub.) Sothers &amp; Prance, 2016
-Moquilea aubletiana Blume, 1852 [1856]
+Moquilea aubletiana Blume, 1852 
 Moquilea belloi (Prance) Sothers &amp; Prance, 2016
 Moquilea boliviensis (Prance) Sothers &amp; Prance, 2016
 Moquilea bothynophylla (Mart.) Hook. f., 1867
 Moquilea bracteosa (Benth.) Walp., 1843
 Moquilea brittoniana (Fritsch) Sothers &amp; Prance, 2016
 Moquilea cabrerae (Prance) Sothers &amp; Prance, 2016
-Moquilea canomensis Mart., 1826 [1827]
+Moquilea canomensis Mart., 1826 
 Moquilea cariae (Cardozo) Sothers &amp; Prance, 2016
 Moquilea cecidiophora (Prance) Sothers &amp; Prance, 2016
 Moquilea celiae (Prance) Sothers &amp; Prance, 2016
@@ -654,7 +670,7 @@
 Moquilea hedbergii (Prance) Sothers &amp; Prance, 2016
 Moquilea humilis (Cham. &amp; Schltdl.) Hook. f., 1867
 Moquilea hypoleuca (Miq.) B.D. Jacks., 1894
-Moquilea hypoleuca Miq., 1847 [1846]
+Moquilea hypoleuca Miq., 1847 
 Moquilea imbaimadaiensis (Prance) Sothers &amp; Prance, 2016
 Moquilea inaequalis Poepp. ex Fritsch, 1890
 Moquilea jaramilloi (Prance) Sothers &amp; Prance, 2016
@@ -684,7 +700,7 @@
 Moquilea pallida Hook. f., 1867
 Moquilea paraensis Mart. &amp; Zucc., 1832
 Moquilea parillo (DC.) Steud., 1841
-Moquilea parviflora Blume, 1852 [1856]
+Moquilea parviflora Blume, 1852 
 Moquilea pendula (Benth.) Hook. f., 1867
 Moquilea platypus Hemsl., 1878
 Moquilea pyrifolia (Griseb.) R.O. Williams, 1932
